--- a/medicine/Psychotrope/Cristal_(bière)/Cristal_(bière).xlsx
+++ b/medicine/Psychotrope/Cristal_(bière)/Cristal_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cristal_(bi%C3%A8re)</t>
+          <t>Cristal_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cristal est une marque utilisée par différentes brasseries de plusieurs pays. 
 La « clarification » est une étape de la fabrication de la bière, qui suit la fermentation, voire la garde et qui consiste à filtrer les impuretés, et notamment les résidus de levures. Le mélange trouble issu de la fermentation devient alors « clair comme du cristal. »
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cristal_(bi%C3%A8re)</t>
+          <t>Cristal_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Allemagne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les bières de froment, dites « bières blanches », sont dans leur forme classique, de couleur claire et présentant un certain trouble.
 Ce trouble est dû à la présence de levure, mais aussi et particulièrement à l'utilisation du froment. Et contrairement à l'orge, cette céréale a tendance à faire plus de la farine lors du concassage d'une part, et le blé contient un fort taux de protéines que l'on retrouve en suspension dans la boisson d'autre part.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cristal_(bi%C3%A8re)</t>
+          <t>Cristal_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cristal Alken est une bière belge brassée par la brasserie d'Alken.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cristal_(bi%C3%A8re)</t>
+          <t>Cristal_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Royaume-Uni</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cristal est une bière britannique brassée par la brasserie Scottish &amp; Newcastle.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cristal_(bi%C3%A8re)</t>
+          <t>Cristal_(bière)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cristal est une bière portugaise brassée par la brasserie Unicer appartenant au groupe de bière Carlsberg. 
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cristal_(bi%C3%A8re)</t>
+          <t>Cristal_(bière)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Cuba</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cristal est une bière blonde fabriquée à Cuba par Bucanero SA.
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cristal_(bi%C3%A8re)</t>
+          <t>Cristal_(bière)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Pérou</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cristal est une bière péruvienne brassée par la brasserie Backus and Johnston, à Lima.
 </t>
@@ -682,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cristal_(bi%C3%A8re)</t>
+          <t>Cristal_(bière)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,7 +724,9 @@
           <t>Chili</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cristal est une bière chilienne brassée par la brasserie Compañía de Cervecerías Unidas, à Santiago.
  Portail de la bière   Portail du Limbourg                    </t>
